--- a/benchmark_tree.xlsx
+++ b/benchmark_tree.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rania\Documents\GitHub\Projet_DM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377153E6-C469-4B8C-9AE3-A58E6FD8CC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,41 +46,41 @@
     <t>prediction_time</t>
   </si>
   <si>
+    <t>{'max_depth': 10}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 15}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 20}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 25}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 30}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 35}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 40}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 45}</t>
+  </si>
+  <si>
+    <t>{'max_depth': 50}</t>
+  </si>
+  <si>
     <t>{'max_depth': 5}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 10}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 15}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 20}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 25}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 30}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 35}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 40}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 45}</t>
-  </si>
-  <si>
-    <t>{'max_depth': 50}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +91,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -122,22 +125,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4E3EC8EB-F47D-49D1-977B-7136AF572777}" name="Tableau1" displayName="Tableau1" ref="B1:H11" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B1:H11" xr:uid="{4E3EC8EB-F47D-49D1-977B-7136AF572777}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{49C4E7C1-771D-4BA8-9594-7017BE8F0250}" name="max_depth" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9FFA94C7-D651-4104-AFEF-430B493A26E4}" name="score" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A6592B78-CBD0-4A11-8F11-8574D79B0298}" name="accuracy" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B35BA8DD-E80F-4033-BE2B-61E7AD987980}" name="specificity" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{97522157-D3A6-400B-BB42-C385198BDE8A}" name="sensitivity" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F2681A52-86FD-4D19-B426-9A00FC91D7BF}" name="training_time" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1248A072-C3FA-4AC5-9B8E-51E1A86B0D74}" name="prediction_time" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,300 +777,314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>0.4050632911392404</v>
-      </c>
-      <c r="D2">
-        <v>0.8401360544217688</v>
-      </c>
-      <c r="E2">
-        <v>0.9428571428571428</v>
-      </c>
-      <c r="F2">
-        <v>0.3265306122448979</v>
-      </c>
-      <c r="G2">
-        <v>15.21</v>
-      </c>
-      <c r="H2">
-        <v>0.008999999999999999</v>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.8231292517006803</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.88979591836734695</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G2" s="6">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1.6E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0.3218390804597702</v>
-      </c>
-      <c r="D3">
-        <v>0.7993197278911565</v>
-      </c>
-      <c r="E3">
-        <v>0.9020408163265307</v>
-      </c>
-      <c r="F3">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G3">
-        <v>12.334</v>
-      </c>
-      <c r="H3">
-        <v>0.017</v>
+      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.47524752475247528</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.81972789115646261</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.88571428571428568</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12.888</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D4">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E4">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F4">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G4">
-        <v>15.526</v>
-      </c>
-      <c r="H4">
-        <v>0.052</v>
+      <c r="B4" s="5">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G4" s="6">
+        <v>12.933999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D5">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E5">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F5">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G5">
-        <v>18.165</v>
-      </c>
-      <c r="H5">
-        <v>0.025</v>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G5" s="6">
+        <v>13.298</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.6E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D6">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E6">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G6">
-        <v>19.463</v>
-      </c>
-      <c r="H6">
-        <v>0.028</v>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G6" s="6">
+        <v>12.894</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D7">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E7">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F7">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G7">
-        <v>18.059</v>
-      </c>
-      <c r="H7">
-        <v>0.032</v>
+      <c r="B7" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G7" s="6">
+        <v>13.236000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1.6E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D8">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E8">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F8">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G8">
-        <v>18.219</v>
-      </c>
-      <c r="H8">
-        <v>0.026</v>
+      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13.455</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D9">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E9">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F9">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G9">
-        <v>15.564</v>
-      </c>
-      <c r="H9">
-        <v>0.017</v>
+      <c r="B9" s="5">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G9" s="6">
+        <v>12.776999999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D10">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E10">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F10">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G10">
-        <v>14.195</v>
-      </c>
-      <c r="H10">
-        <v>0.019</v>
+      <c r="B10" s="5">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.46601941747572823</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.81292517006802723</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.48979591836734693</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12.909000000000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D11">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E11">
-        <v>0.8857142857142857</v>
-      </c>
-      <c r="F11">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G11">
-        <v>11.156</v>
-      </c>
-      <c r="H11">
-        <v>0.017</v>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.83673469387755106</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.95510204081632655</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.24489795918367349</v>
+      </c>
+      <c r="G11" s="9">
+        <v>8.7910000000000004</v>
+      </c>
+      <c r="H11" s="10">
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>